--- a/documentation/quality/RTM.xlsx
+++ b/documentation/quality/RTM.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>001</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
   </si>
   <si>
     <t>009</t>
@@ -407,12 +404,6 @@
     <t>Application visitors can create their own  account</t>
   </si>
   <si>
-    <t>Clients can view their booking history</t>
-  </si>
-  <si>
-    <t>Clients can mix and match their preffered travel details.</t>
-  </si>
-  <si>
     <t>Clients can schedule an appointment for Visa Assistance</t>
   </si>
   <si>
@@ -431,12 +422,6 @@
     <t>Langauge Translator</t>
   </si>
   <si>
-    <t>Agents get notified for every client request</t>
-  </si>
-  <si>
-    <t>Booking and Reservation</t>
-  </si>
-  <si>
     <t>Visa Appointment</t>
   </si>
   <si>
@@ -486,6 +471,21 @@
   </si>
   <si>
     <t>Apply security measures</t>
+  </si>
+  <si>
+    <t>Travel Arrangement</t>
+  </si>
+  <si>
+    <t>Clients can view their travel  arrangement</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Clients can mix and match their preffered travel arrangement.</t>
+  </si>
+  <si>
+    <t>Clients can view their appointment history</t>
   </si>
 </sst>
 </file>
@@ -996,9 +996,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1012,7 +1012,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1052,27 +1052,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1370,7 +1349,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1393,55 +1372,55 @@
   <sheetData>
     <row r="1" spans="1:13" s="23" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1" ht="15">
-      <c r="A2" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
     </row>
@@ -1450,15 +1429,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="7"/>
       <c r="F3" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1473,13 +1452,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="8"/>
       <c r="F4" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1494,15 +1475,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8"/>
       <c r="F5" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1517,13 +1498,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="8"/>
       <c r="F6" s="21" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1538,13 +1521,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
       <c r="F7" s="21" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1554,19 +1539,19 @@
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="37"/>
+      <c r="B8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="F8" s="21"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1575,18 +1560,20 @@
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
     </row>
-    <row r="9" spans="1:13" ht="25.5">
+    <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="37"/>
+        <v>46</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
       <c r="F9" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1598,16 +1585,18 @@
     </row>
     <row r="10" spans="1:13" ht="25.5">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="8"/>
       <c r="F10" s="21" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1619,16 +1608,16 @@
     </row>
     <row r="11" spans="1:13" ht="25.5">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="4"/>
       <c r="E11" s="8"/>
       <c r="F11" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1640,16 +1629,16 @@
     </row>
     <row r="12" spans="1:13" ht="24" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="4"/>
       <c r="E12" s="8"/>
       <c r="F12" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1661,16 +1650,16 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
       <c r="F13" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1682,16 +1671,16 @@
     </row>
     <row r="14" spans="1:13" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
       <c r="F14" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1703,16 +1692,16 @@
     </row>
     <row r="15" spans="1:13" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="4"/>
       <c r="E15" s="8"/>
       <c r="F15" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1722,14 +1711,16 @@
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13" ht="25.5">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="8"/>
       <c r="F16" s="21" t="s">
@@ -1745,16 +1736,16 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="4"/>
       <c r="E17" s="8"/>
       <c r="F17" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1766,7 +1757,7 @@
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -1783,16 +1774,16 @@
     </row>
     <row r="19" spans="1:13" ht="25.5">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="4"/>
       <c r="E19" s="8"/>
       <c r="F19" s="39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1804,16 +1795,16 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="4"/>
       <c r="E20" s="8"/>
       <c r="F20" s="39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1825,16 +1816,16 @@
     </row>
     <row r="21" spans="1:13" ht="31.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8"/>
       <c r="F21" s="39" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1846,16 +1837,16 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8"/>
       <c r="F22" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1867,7 +1858,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="37"/>
@@ -1884,7 +1875,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="37"/>
@@ -1901,7 +1892,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="37"/>
@@ -1918,7 +1909,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="37"/>
@@ -1935,7 +1926,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="37"/>
@@ -1952,7 +1943,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="37"/>
@@ -1969,7 +1960,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="37"/>
@@ -1986,7 +1977,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="37"/>
@@ -2003,7 +1994,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="37"/>
@@ -2020,7 +2011,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="37"/>
@@ -2037,7 +2028,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="37"/>
@@ -2054,7 +2045,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="37"/>
@@ -2071,7 +2062,7 @@
     </row>
     <row r="35" spans="1:13" ht="13.5" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="38"/>
@@ -2088,7 +2079,7 @@
     </row>
     <row r="36" spans="1:13" ht="13.5" thickBot="1">
       <c r="A36" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M36" s="25"/>
     </row>
@@ -2109,7 +2100,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C17 C19:C35">
+  <conditionalFormatting sqref="C19:C35 C3:C17">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -2121,7 +2112,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17 C19:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C35 C3:C17">
       <formula1>"In Progress, Testing, Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentation/quality/RTM.xlsx
+++ b/documentation/quality/RTM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="15480" windowHeight="6555"/>
@@ -10,11 +10,11 @@
     <sheet name="RTM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RTM!$A$1:$K$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">RTM!$A$1:$M$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RTM!$A$1:$I$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RTM!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">RTM!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -103,52 +103,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">• Technical Specification:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with a description of the technical specification linked to the functional requirement.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">• System Component(s):  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with a description of the system component(s) linked to the functional requirement.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">• Software Module(s):  </t>
         </r>
         <r>
@@ -162,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>001</t>
   </si>
@@ -321,21 +275,6 @@
     <t>021</t>
   </si>
   <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
     <t>027</t>
   </si>
   <si>
@@ -352,13 +291,6 @@
   </si>
   <si>
     <t>032</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>Technical
-Specification</t>
   </si>
   <si>
     <t>Test Case
@@ -375,10 +307,6 @@
 Module(s)</t>
   </si>
   <si>
-    <t>System
-Component(s)</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -395,9 +323,6 @@
     <t xml:space="preserve"> Description</t>
   </si>
   <si>
-    <t>Should have a user friendly GUI regardless of its functionality.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Application can run in any browser</t>
   </si>
   <si>
@@ -407,24 +332,12 @@
     <t>Clients can schedule an appointment for Visa Assistance</t>
   </si>
   <si>
-    <t>Agents can verify client travel details</t>
-  </si>
-  <si>
-    <t>Users can change web page language</t>
-  </si>
-  <si>
     <t>Clients can connect  to a live agent</t>
   </si>
   <si>
     <t>Customer Service</t>
   </si>
   <si>
-    <t>Langauge Translator</t>
-  </si>
-  <si>
-    <t>Visa Appointment</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -446,33 +359,9 @@
     <t>Web Version</t>
   </si>
   <si>
-    <t>Auto sign off after 15 minutes of idle time or parametarized</t>
-  </si>
-  <si>
-    <t>Client travel details is safe and secured</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>Mobile Version</t>
-  </si>
-  <si>
-    <t>Redesign GUI to be well fitted in a mobile screen</t>
-  </si>
-  <si>
-    <t>Can run in different platforms</t>
-  </si>
-  <si>
-    <t>Apply same functions that apply in the web version</t>
-  </si>
-  <si>
-    <t>All modules</t>
-  </si>
-  <si>
-    <t>Apply security measures</t>
-  </si>
-  <si>
     <t>Travel Arrangement</t>
   </si>
   <si>
@@ -485,7 +374,34 @@
     <t>Clients can mix and match their preffered travel arrangement.</t>
   </si>
   <si>
-    <t>Clients can view their appointment history</t>
+    <t>Admin can view created travel arrangements</t>
+  </si>
+  <si>
+    <t>JMGTCC management receives an email containing client travel arrangement details from the application</t>
+  </si>
+  <si>
+    <t>Clients receives an email from the system containing their appointment details</t>
+  </si>
+  <si>
+    <t>Visa Consultation Appointment</t>
+  </si>
+  <si>
+    <t>Admin can view appointments made by the system</t>
+  </si>
+  <si>
+    <t>Admin generates appointment monthly report</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Admin can manage maintenance modules</t>
+  </si>
+  <si>
+    <t>Travel Arrangement and Visa Consultation Appointment</t>
+  </si>
+  <si>
+    <t>User friendly UI</t>
   </si>
 </sst>
 </file>
@@ -560,7 +476,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,18 +503,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -721,21 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -838,48 +733,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,24 +745,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,34 +763,28 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,27 +803,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -996,18 +833,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,751 +1173,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="86" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="10.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="86" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="30" t="s">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="15">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="1:13" ht="27.75" customHeight="1">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" s="18" customFormat="1" ht="15">
+      <c r="A2" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.5">
+      <c r="B4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="25.5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5">
+      <c r="B5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="25.5">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" ht="25.5">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="25.5">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="38.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
+      <c r="B8" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="25.5">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" ht="25.5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" ht="25.5">
+        <v>58</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
+      <c r="B11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="21" t="s">
+      <c r="B12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="D12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" ht="25.5">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" ht="25.5">
+      <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.5">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
+      <c r="B16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A18" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" ht="25.5">
+      <c r="B17" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="1:13" ht="31.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="B23" s="21"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="B25" s="21"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="B26" s="21"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="B27" s="21"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="B28" s="21"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="B29" s="21"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-    </row>
-    <row r="35" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A31" s="8"/>
+      <c r="K31" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A18:K18"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C36:G65531 G1 J1:K1">
+  <conditionalFormatting sqref="C31:E65526 E1 H1:I1">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -2100,7 +1776,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C35 C3:C17">
+  <conditionalFormatting sqref="C3:C30">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -2112,7 +1788,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C35 C3:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
       <formula1>"In Progress, Testing, Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentation/quality/RTM.xlsx
+++ b/documentation/quality/RTM.xlsx
@@ -10,8 +10,8 @@
     <sheet name="RTM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RTM!$A$1:$I$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">RTM!$A$1:$K$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RTM!$A$1:$G$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RTM!$A$1:$I$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">RTM!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -149,52 +149,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• Tested In:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  This column should be populated with the module that the functional requirement has been tested in.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">• Implemented In:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with the module that the functional requirement has been implemented in.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">• Verification: </t>
         </r>
         <r>
@@ -213,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>001</t>
   </si>
@@ -258,51 +212,12 @@
   </si>
   <si>
     <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>032</t>
   </si>
   <si>
     <t>Test Case
 Number</t>
   </si>
   <si>
-    <t>Implemented In</t>
-  </si>
-  <si>
-    <t>Tested In</t>
-  </si>
-  <si>
     <t>Software
 Module(s)</t>
   </si>
@@ -389,9 +304,6 @@
     <t>Admin can view appointments made by the system</t>
   </si>
   <si>
-    <t>Admin generates appointment monthly report</t>
-  </si>
-  <si>
     <t>008</t>
   </si>
   <si>
@@ -402,6 +314,54 @@
   </si>
   <si>
     <t>User friendly UI</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Admin generates visa appointment report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,6,8 ,9, 10 </t>
+  </si>
+  <si>
+    <t>Frontend(Tour Arrangement and Travel Arrangement - MVC)</t>
+  </si>
+  <si>
+    <t>Backend(TourArrangementController.php and TravelTourArrangementController.php)</t>
+  </si>
+  <si>
+    <t>Frontend(Tour Arrangement and Travel Arrangement Controllers)</t>
+  </si>
+  <si>
+    <t>Frontend(View --- travel-tour-arrangement and tour-arrangement)</t>
+  </si>
+  <si>
+    <t>Frontend(MVC Login)</t>
+  </si>
+  <si>
+    <t>Web Folders</t>
+  </si>
+  <si>
+    <t>Frontend(Appointment - MVC)</t>
+  </si>
+  <si>
+    <t>Backend(Appointment - View)</t>
+  </si>
+  <si>
+    <t>Backend(Appointment Report)</t>
+  </si>
+  <si>
+    <t>All controllers</t>
+  </si>
+  <si>
+    <t>Frontend(Signup)</t>
+  </si>
+  <si>
+    <t>All model files</t>
+  </si>
+  <si>
+    <t>Backend(Airlines, Contact Number, Food Deals, Freebies, Personnel, Time, Tour  Type, Transport Service MVC)</t>
   </si>
 </sst>
 </file>
@@ -508,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -607,75 +567,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -737,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,12 +636,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,31 +645,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,25 +670,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,15 +691,43 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,599 +1065,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="86" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="86" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="26" t="s">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="15">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" ht="15">
-      <c r="A2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="27.75" customHeight="1">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="B4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" ht="25.5">
+    </row>
+    <row r="5" spans="1:9" ht="25.5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" ht="25.5">
+    </row>
+    <row r="6" spans="1:9" ht="44.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="24">
+        <v>8</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" ht="25.5">
+    </row>
+    <row r="7" spans="1:9" ht="50.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="24">
+        <v>2</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" ht="38.25">
+    </row>
+    <row r="8" spans="1:9" ht="42.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" ht="25.5">
+    </row>
+    <row r="9" spans="1:9" ht="38.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="24">
+        <v>10</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" ht="37.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:9" ht="37.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:9" ht="40.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="24">
+        <v>5</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:9" ht="40.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="24">
+        <v>4</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" ht="40.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:9" ht="40.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" ht="24" customHeight="1">
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="B15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" ht="25.5">
+    </row>
+    <row r="16" spans="1:9" ht="25.5">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="B16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" ht="63.75">
+    </row>
+    <row r="18" spans="1:9" ht="63.75">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="24">
+        <v>3</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A31" s="8"/>
-      <c r="K31" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C31:E65526 E1 H1:I1">
+  <conditionalFormatting sqref="C19:E65513 E1:G1">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -1776,7 +1485,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C30">
+  <conditionalFormatting sqref="C3:C18">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -1788,7 +1497,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C18">
       <formula1>"In Progress, Testing, Completed"</formula1>
     </dataValidation>
   </dataValidations>
